--- a/labor-timekeeper/exports/2026-01/2026-01-14/Chris_Zavesky_2026-01-14.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-14/Chris_Zavesky_2026-01-14.xlsx
@@ -83,7 +83,7 @@
     <t>Chris Zavesky</t>
   </si>
   <si>
-    <t>emp_5chpvt65</t>
+    <t>emp_jp4mlvog</t>
   </si>
 </sst>
 </file>

--- a/labor-timekeeper/exports/2026-01/2026-01-14/Chris_Zavesky_2026-01-14.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-14/Chris_Zavesky_2026-01-14.xlsx
@@ -546,10 +546,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -566,10 +566,10 @@
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="9">
-        <v>0</v>
+        <v>3360</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -789,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -818,10 +818,10 @@
         <v>7</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
